--- a/01_python/python-설명시트.xlsx
+++ b/01_python/python-설명시트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34416489-A3E9-4FB0-86DD-C52FCFB014F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D91AB51-4BF2-4495-818C-D74BB987EE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="메모리" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,9 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>2**63-1</t>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값(객체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM (Random Access Memory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카톡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,15 +90,63 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -114,24 +206,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -412,223 +554,1685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="11" width="5.375" customWidth="1"/>
+    <col min="1" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="7" customWidth="1"/>
+    <col min="8" max="29" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="B3" s="6"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="11"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5" s="6"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="6"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="6"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>0</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <v>0</v>
+      </c>
+      <c r="W29" s="15">
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0</v>
+      </c>
+      <c r="S31" s="15">
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <v>0</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
+      <c r="X32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0</v>
+      </c>
+      <c r="R34" s="15">
+        <v>0</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15">
+        <v>0</v>
+      </c>
+      <c r="W34" s="15">
+        <v>0</v>
+      </c>
+      <c r="X34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+      <c r="O38" s="15">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>0</v>
+      </c>
+      <c r="R38" s="15">
+        <v>0</v>
+      </c>
+      <c r="S38" s="15">
+        <v>0</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>0</v>
+      </c>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:29" x14ac:dyDescent="0.3">
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>0</v>
+      </c>
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
+        <v>0</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+      <c r="X39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:C5"/>
+  <mergeCells count="3">
+    <mergeCell ref="H2:AC2"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_python/python-설명시트.xlsx
+++ b/01_python/python-설명시트.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBB6D0-FF63-4BE2-889D-41DA0FA72D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E1371-87E8-4239-91C8-355562199D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>값(객체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RAM (Random Access Memory)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카톡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,31 +38,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1</t>
+    <t>이름 공간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3]</t>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>print</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my_max</t>
+    <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>함수 블록의 내용</t>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = 'asdf'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b = x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a = x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +137,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -205,47 +259,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,15 +290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -553,95 +576,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="2" customWidth="1"/>
-    <col min="8" max="29" width="4.625" customWidth="1"/>
+    <col min="1" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="2" customWidth="1"/>
+    <col min="9" max="30" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="AD1" s="11"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -663,17 +702,18 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -682,11 +722,11 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -697,28 +737,27 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -731,31 +770,28 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -769,15 +805,16 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -786,7 +823,9 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -799,18 +838,19 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD7" s="1"/>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -819,7 +859,9 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -832,18 +874,21 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8">
+      <c r="AD8" s="1"/>
+      <c r="AE8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -865,20 +910,23 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9">
+      <c r="AD9" s="1"/>
+      <c r="AE9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="16">
+        <v>10</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -898,17 +946,16 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -930,18 +977,19 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD11" s="1"/>
+      <c r="AE11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -963,28 +1011,27 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD12" s="1"/>
+      <c r="AE12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -998,23 +1045,24 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1028,15 +1076,16 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1058,15 +1107,16 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1088,15 +1138,16 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1118,15 +1169,16 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1148,15 +1200,16 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1178,15 +1231,16 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1208,15 +1262,16 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1238,11 +1293,9 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I26" s="4">
         <v>0</v>
       </c>
@@ -1306,11 +1359,11 @@
       <c r="AC26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I27" s="4">
         <v>0</v>
       </c>
@@ -1374,11 +1427,11 @@
       <c r="AC27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I28" s="4">
         <v>0</v>
       </c>
@@ -1442,11 +1495,11 @@
       <c r="AC28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I29" s="4">
         <v>0</v>
       </c>
@@ -1459,34 +1512,34 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4">
-        <v>0</v>
-      </c>
-      <c r="V29" s="4">
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
         <v>0</v>
       </c>
       <c r="W29" s="4">
@@ -1510,14 +1563,11 @@
       <c r="AC29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I30" s="4">
         <v>0</v>
       </c>
@@ -1530,34 +1580,34 @@
       <c r="L30" s="4">
         <v>0</v>
       </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
         <v>0</v>
       </c>
       <c r="W30" s="4">
@@ -1581,11 +1631,11 @@
       <c r="AC30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I31" s="4">
         <v>0</v>
       </c>
@@ -1598,34 +1648,34 @@
       <c r="L31" s="4">
         <v>0</v>
       </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0</v>
+      </c>
+      <c r="S31" s="15">
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
         <v>0</v>
       </c>
       <c r="W31" s="4">
@@ -1649,11 +1699,11 @@
       <c r="AC31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I32" s="4">
         <v>0</v>
       </c>
@@ -1666,34 +1716,34 @@
       <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4">
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
         <v>0</v>
       </c>
       <c r="W32" s="4">
@@ -1717,11 +1767,11 @@
       <c r="AC32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I33" s="4">
         <v>0</v>
       </c>
@@ -1734,34 +1784,34 @@
       <c r="L33" s="4">
         <v>0</v>
       </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4">
-        <v>0</v>
-      </c>
-      <c r="V33" s="4">
+      <c r="M33" s="15">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
         <v>0</v>
       </c>
       <c r="W33" s="4">
@@ -1785,11 +1835,11 @@
       <c r="AC33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I34" s="4">
         <v>0</v>
       </c>
@@ -1802,34 +1852,34 @@
       <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
-      <c r="T34" s="4">
-        <v>0</v>
-      </c>
-      <c r="U34" s="4">
-        <v>0</v>
-      </c>
-      <c r="V34" s="4">
+      <c r="M34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0</v>
+      </c>
+      <c r="O34" s="15">
+        <v>0</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0</v>
+      </c>
+      <c r="R34" s="15">
+        <v>0</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15">
         <v>0</v>
       </c>
       <c r="W34" s="4">
@@ -1853,11 +1903,11 @@
       <c r="AC34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I35" s="4">
         <v>0</v>
       </c>
@@ -1870,34 +1920,34 @@
       <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4">
-        <v>0</v>
-      </c>
-      <c r="V35" s="4">
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
         <v>0</v>
       </c>
       <c r="W35" s="4">
@@ -1921,11 +1971,11 @@
       <c r="AC35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I36" s="4">
         <v>0</v>
       </c>
@@ -1938,34 +1988,34 @@
       <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="4">
-        <v>0</v>
-      </c>
-      <c r="U36" s="4">
-        <v>0</v>
-      </c>
-      <c r="V36" s="4">
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
         <v>0</v>
       </c>
       <c r="W36" s="4">
@@ -1989,11 +2039,11 @@
       <c r="AC36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I37" s="4">
         <v>0</v>
       </c>
@@ -2006,34 +2056,34 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0</v>
-      </c>
-      <c r="O37" s="4">
-        <v>0</v>
-      </c>
-      <c r="P37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4">
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4">
-        <v>0</v>
-      </c>
-      <c r="V37" s="4">
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
         <v>0</v>
       </c>
       <c r="W37" s="4">
@@ -2057,11 +2107,11 @@
       <c r="AC37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I38" s="4">
         <v>0</v>
       </c>
@@ -2125,11 +2175,11 @@
       <c r="AC38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="8:29" x14ac:dyDescent="0.3">
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
+      <c r="AD38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:30" x14ac:dyDescent="0.3">
       <c r="I39" s="4">
         <v>0</v>
       </c>
@@ -2193,13 +2243,15 @@
       <c r="AC39" s="4">
         <v>0</v>
       </c>
+      <c r="AD39" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H2:AC2"/>
-    <mergeCell ref="A1:AC1"/>
+  <mergeCells count="3">
+    <mergeCell ref="I2:AD2"/>
+    <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="N13:P14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_python/python-설명시트.xlsx
+++ b/01_python/python-설명시트.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E1371-87E8-4239-91C8-355562199D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5762E6-990C-4375-AC72-B0CB05A82AF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>값(객체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,23 +78,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x = 'asdf'</t>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b = x</t>
+    <t>a = 'asdf'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a = x</t>
+    <t>a.replace('a', b')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x = True</t>
+    <t>b = a.replace('a', b')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdf'</t>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,18 +160,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -272,6 +268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,12 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -578,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:AB12"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,74 +583,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="5"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="8"/>
+      <c r="I2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -706,13 +699,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -722,9 +715,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -741,23 +732,25 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -774,19 +767,17 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -806,26 +797,31 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
+      <c r="AE6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -839,17 +835,17 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7">
-        <v>0</v>
+      <c r="AE7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -859,9 +855,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -875,19 +869,17 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8">
-        <v>1</v>
+      <c r="AE8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -917,16 +909,14 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="16">
-        <v>10</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -950,15 +940,17 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -984,11 +976,11 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1018,11 +1010,11 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1049,11 +1041,11 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1080,11 +1072,11 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1111,11 +1103,11 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1142,11 +1134,11 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1173,11 +1165,11 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1204,11 +1196,11 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1235,11 +1227,11 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1266,11 +1258,11 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1512,34 +1504,34 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="M29" s="15">
-        <v>0</v>
-      </c>
-      <c r="N29" s="15">
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
-      </c>
-      <c r="P29" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>0</v>
-      </c>
-      <c r="R29" s="15">
-        <v>0</v>
-      </c>
-      <c r="S29" s="15">
-        <v>0</v>
-      </c>
-      <c r="T29" s="15">
-        <v>0</v>
-      </c>
-      <c r="U29" s="15">
-        <v>0</v>
-      </c>
-      <c r="V29" s="15">
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
         <v>0</v>
       </c>
       <c r="W29" s="4">
@@ -1580,34 +1572,34 @@
       <c r="L30" s="4">
         <v>0</v>
       </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-      <c r="N30" s="15">
-        <v>0</v>
-      </c>
-      <c r="O30" s="15">
-        <v>0</v>
-      </c>
-      <c r="P30" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>0</v>
-      </c>
-      <c r="R30" s="15">
-        <v>0</v>
-      </c>
-      <c r="S30" s="15">
-        <v>0</v>
-      </c>
-      <c r="T30" s="15">
-        <v>0</v>
-      </c>
-      <c r="U30" s="15">
-        <v>0</v>
-      </c>
-      <c r="V30" s="15">
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
         <v>0</v>
       </c>
       <c r="W30" s="4">
@@ -1648,34 +1640,34 @@
       <c r="L31" s="4">
         <v>0</v>
       </c>
-      <c r="M31" s="15">
-        <v>0</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>0</v>
-      </c>
-      <c r="R31" s="15">
-        <v>0</v>
-      </c>
-      <c r="S31" s="15">
-        <v>0</v>
-      </c>
-      <c r="T31" s="15">
-        <v>0</v>
-      </c>
-      <c r="U31" s="15">
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
         <v>0</v>
       </c>
       <c r="W31" s="4">
@@ -1716,34 +1708,34 @@
       <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="M32" s="15">
-        <v>0</v>
-      </c>
-      <c r="N32" s="15">
-        <v>0</v>
-      </c>
-      <c r="O32" s="15">
-        <v>0</v>
-      </c>
-      <c r="P32" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="15">
-        <v>0</v>
-      </c>
-      <c r="R32" s="15">
-        <v>0</v>
-      </c>
-      <c r="S32" s="15">
-        <v>0</v>
-      </c>
-      <c r="T32" s="15">
-        <v>0</v>
-      </c>
-      <c r="U32" s="15">
-        <v>0</v>
-      </c>
-      <c r="V32" s="15">
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
         <v>0</v>
       </c>
       <c r="W32" s="4">
@@ -1784,34 +1776,34 @@
       <c r="L33" s="4">
         <v>0</v>
       </c>
-      <c r="M33" s="15">
-        <v>0</v>
-      </c>
-      <c r="N33" s="15">
-        <v>0</v>
-      </c>
-      <c r="O33" s="15">
-        <v>0</v>
-      </c>
-      <c r="P33" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>0</v>
-      </c>
-      <c r="R33" s="15">
-        <v>0</v>
-      </c>
-      <c r="S33" s="15">
-        <v>0</v>
-      </c>
-      <c r="T33" s="15">
-        <v>0</v>
-      </c>
-      <c r="U33" s="15">
-        <v>0</v>
-      </c>
-      <c r="V33" s="15">
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
         <v>0</v>
       </c>
       <c r="W33" s="4">
@@ -1852,34 +1844,34 @@
       <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="15">
-        <v>0</v>
-      </c>
-      <c r="N34" s="15">
-        <v>0</v>
-      </c>
-      <c r="O34" s="15">
-        <v>0</v>
-      </c>
-      <c r="P34" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>0</v>
-      </c>
-      <c r="R34" s="15">
-        <v>0</v>
-      </c>
-      <c r="S34" s="15">
-        <v>0</v>
-      </c>
-      <c r="T34" s="15">
-        <v>0</v>
-      </c>
-      <c r="U34" s="15">
-        <v>0</v>
-      </c>
-      <c r="V34" s="15">
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
         <v>0</v>
       </c>
       <c r="W34" s="4">
@@ -1920,34 +1912,34 @@
       <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0</v>
-      </c>
-      <c r="O35" s="15">
-        <v>0</v>
-      </c>
-      <c r="P35" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>0</v>
-      </c>
-      <c r="R35" s="15">
-        <v>0</v>
-      </c>
-      <c r="S35" s="15">
-        <v>0</v>
-      </c>
-      <c r="T35" s="15">
-        <v>0</v>
-      </c>
-      <c r="U35" s="15">
-        <v>0</v>
-      </c>
-      <c r="V35" s="15">
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
         <v>0</v>
       </c>
       <c r="W35" s="4">
@@ -1988,34 +1980,34 @@
       <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="M36" s="15">
-        <v>0</v>
-      </c>
-      <c r="N36" s="15">
-        <v>0</v>
-      </c>
-      <c r="O36" s="15">
-        <v>0</v>
-      </c>
-      <c r="P36" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>0</v>
-      </c>
-      <c r="R36" s="15">
-        <v>0</v>
-      </c>
-      <c r="S36" s="15">
-        <v>0</v>
-      </c>
-      <c r="T36" s="15">
-        <v>0</v>
-      </c>
-      <c r="U36" s="15">
-        <v>0</v>
-      </c>
-      <c r="V36" s="15">
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
         <v>0</v>
       </c>
       <c r="W36" s="4">
@@ -2056,34 +2048,34 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15">
-        <v>0</v>
-      </c>
-      <c r="O37" s="15">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0</v>
-      </c>
-      <c r="R37" s="15">
-        <v>0</v>
-      </c>
-      <c r="S37" s="15">
-        <v>0</v>
-      </c>
-      <c r="T37" s="15">
-        <v>0</v>
-      </c>
-      <c r="U37" s="15">
-        <v>0</v>
-      </c>
-      <c r="V37" s="15">
+      <c r="M37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0</v>
+      </c>
+      <c r="V37" s="8">
         <v>0</v>
       </c>
       <c r="W37" s="4">

--- a/01_python/python-설명시트.xlsx
+++ b/01_python/python-설명시트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5762E6-990C-4375-AC72-B0CB05A82AF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4743AEA-4C3B-4B52-8ED1-87415689AA32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>값(객체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>[1, 2, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person인스턴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +580,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,11 +887,15 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1018,7 +1030,9 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
